--- a/20210305_上位イメージ一覧.xlsx
+++ b/20210305_上位イメージ一覧.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="181">
   <si>
     <t xml:space="preserve">実施内容</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t xml:space="preserve">docker search zabbix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker search jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker search debian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker search centos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker search apline</t>
   </si>
   <si>
     <t xml:space="preserve">NAME</t>
@@ -798,16 +810,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,6 +871,26 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -880,46 +912,46 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="1" sqref="B14 F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>7200</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>482</v>
@@ -929,31 +961,31 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>469</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>255</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>182</v>
@@ -963,254 +995,254 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>168</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>117</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>83</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>67</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>45</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>44</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>40</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>34</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>33</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>31</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>13</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>11</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>11</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B23" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1232,106 +1264,106 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="B14 A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>954</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>320</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>59</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>2</v>
@@ -1341,31 +1373,31 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>1</v>
@@ -1375,7 +1407,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>1</v>
@@ -1402,10 +1434,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B14 A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.31"/>
@@ -1415,45 +1447,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>68</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>60</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>37</v>
@@ -1463,55 +1495,55 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>31</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>21</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>16</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>7</v>
@@ -1521,7 +1553,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>7</v>
@@ -1531,7 +1563,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>1</v>
@@ -1541,14 +1573,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,10 +1608,10 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="B14 D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.22"/>
@@ -1589,69 +1621,69 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>3204</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>1170</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>684</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>239</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>229</v>
@@ -1661,19 +1693,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>56</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>35</v>
@@ -1683,7 +1715,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>32</v>
@@ -1693,7 +1725,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>28</v>
@@ -1703,19 +1735,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>26</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>26</v>
@@ -1725,31 +1757,31 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>16</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>5</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>5</v>
@@ -1759,62 +1791,62 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,67 +1871,67 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B14 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>218</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>48</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>3</v>
@@ -1909,31 +1941,31 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>2</v>
@@ -1943,19 +1975,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>1</v>
@@ -1965,14 +1997,14 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1994,151 +2026,151 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="B14 F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>273</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>165</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>154</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>93</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>88</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>77</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>71</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>71</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>53</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>39</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>31</v>
@@ -2148,55 +2180,55 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>30</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>24</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>20</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>10</v>
@@ -2206,43 +2238,43 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>7</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>1</v>
@@ -2252,19 +2284,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B23" s="6" t="n">
         <v>1</v>
@@ -2291,43 +2323,43 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B14 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>5086</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>2434</v>
@@ -2337,7 +2369,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>598</v>
@@ -2347,7 +2379,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>385</v>
@@ -2357,103 +2389,103 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>136</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>128</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>65</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>43</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>43</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>34</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>34</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>31</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>29</v>
@@ -2463,19 +2495,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>23</v>
@@ -2485,19 +2517,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>11</v>
@@ -2507,19 +2539,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>7</v>
@@ -2529,31 +2561,31 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B23" s="6" t="n">
         <v>4</v>
@@ -2563,14 +2595,14 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2592,58 +2624,58 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B14 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>11902</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>3755</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>71</v>
@@ -2653,19 +2685,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>28</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>24</v>
@@ -2675,19 +2707,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>22</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>14</v>
@@ -2697,7 +2729,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>13</v>
@@ -2707,31 +2739,31 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>5</v>
@@ -2741,7 +2773,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>4</v>
@@ -2751,7 +2783,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>3</v>
@@ -2761,7 +2793,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>2</v>
@@ -2771,7 +2803,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>2</v>
@@ -2781,7 +2813,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>2</v>
@@ -2791,7 +2823,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>1</v>
@@ -2801,26 +2833,26 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2842,94 +2874,94 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B14 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>6439</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>132</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>125</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>117</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>96</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>87</v>
@@ -2939,19 +2971,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>58</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>46</v>
@@ -2961,7 +2993,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2969,7 +3001,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>13</v>
@@ -2979,31 +3011,31 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>7</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3011,7 +3043,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>5</v>
@@ -3021,19 +3053,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>3</v>
@@ -3043,19 +3075,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>3</v>
@@ -3065,50 +3097,50 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
